--- a/26.06/fb-survey-communityState.xlsx
+++ b/26.06/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Alaska</t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>22 06 2020</t>
+  </si>
+  <si>
+    <t>23 06 2020</t>
+  </si>
+  <si>
+    <t>24 06 2020</t>
+  </si>
+  <si>
+    <t>25 06 2020</t>
+  </si>
+  <si>
+    <t>26 06 2020</t>
   </si>
 </sst>
 </file>
@@ -942,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE144"/>
+  <dimension ref="A1:BE148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10824,6 +10836,9 @@
       <c r="AQ134">
         <v>11.6616173</v>
       </c>
+      <c r="AR134">
+        <v>8.8462104</v>
+      </c>
       <c r="AS134">
         <v>12.9244698</v>
       </c>
@@ -10982,6 +10997,9 @@
       <c r="AQ135">
         <v>11.4898137</v>
       </c>
+      <c r="AR135">
+        <v>10.5506085</v>
+      </c>
       <c r="AS135">
         <v>11.9037145</v>
       </c>
@@ -11140,6 +11158,9 @@
       <c r="AQ136">
         <v>11.3726958</v>
       </c>
+      <c r="AR136">
+        <v>14.356492</v>
+      </c>
       <c r="AS136">
         <v>11.7449412</v>
       </c>
@@ -11984,7 +12005,7 @@
         <v>21.1602242</v>
       </c>
       <c r="G142">
-        <v>12.2418795</v>
+        <v>12.2405909</v>
       </c>
       <c r="H142">
         <v>13.2127952</v>
@@ -12129,10 +12150,795 @@
       <c r="A143" t="s">
         <v>197</v>
       </c>
+      <c r="B143">
+        <v>16.4300923</v>
+      </c>
+      <c r="C143">
+        <v>21.1817963</v>
+      </c>
+      <c r="D143">
+        <v>20.2397725</v>
+      </c>
+      <c r="F143">
+        <v>22.149584</v>
+      </c>
+      <c r="G143">
+        <v>12.4251331</v>
+      </c>
+      <c r="H143">
+        <v>13.199867</v>
+      </c>
+      <c r="I143">
+        <v>11.9194381</v>
+      </c>
+      <c r="J143">
+        <v>14.3870968</v>
+      </c>
+      <c r="K143">
+        <v>13.1213255</v>
+      </c>
+      <c r="L143">
+        <v>15.0895932</v>
+      </c>
+      <c r="M143">
+        <v>16.8905516</v>
+      </c>
+      <c r="O143">
+        <v>9.6175166</v>
+      </c>
+      <c r="P143">
+        <v>19.5793223</v>
+      </c>
+      <c r="Q143">
+        <v>15.1881238</v>
+      </c>
+      <c r="R143">
+        <v>13.2566567</v>
+      </c>
+      <c r="S143">
+        <v>18.8726161</v>
+      </c>
+      <c r="T143">
+        <v>15.374564</v>
+      </c>
+      <c r="U143">
+        <v>15.7300681</v>
+      </c>
+      <c r="V143">
+        <v>21.0845323</v>
+      </c>
+      <c r="W143">
+        <v>12.2803712</v>
+      </c>
+      <c r="X143">
+        <v>13.4317781</v>
+      </c>
+      <c r="Y143">
+        <v>9.1019311</v>
+      </c>
+      <c r="Z143">
+        <v>10.6787645</v>
+      </c>
+      <c r="AA143">
+        <v>14.4727302</v>
+      </c>
+      <c r="AB143">
+        <v>15.8673754</v>
+      </c>
+      <c r="AD143">
+        <v>23.3105273</v>
+      </c>
+      <c r="AE143">
+        <v>12.0806163</v>
+      </c>
+      <c r="AF143">
+        <v>16.6446172</v>
+      </c>
+      <c r="AG143">
+        <v>16.7647578</v>
+      </c>
+      <c r="AH143">
+        <v>18.7169639</v>
+      </c>
+      <c r="AI143">
+        <v>10.926004</v>
+      </c>
+      <c r="AJ143">
+        <v>12.7245802</v>
+      </c>
+      <c r="AK143">
+        <v>14.3913285</v>
+      </c>
+      <c r="AL143">
+        <v>13.5518031</v>
+      </c>
+      <c r="AM143">
+        <v>12.2356187</v>
+      </c>
+      <c r="AN143">
+        <v>12.9495034</v>
+      </c>
+      <c r="AO143">
+        <v>19.6064668</v>
+      </c>
+      <c r="AP143">
+        <v>11.2915817</v>
+      </c>
+      <c r="AQ143">
+        <v>11.3086483</v>
+      </c>
+      <c r="AS143">
+        <v>11.5487716</v>
+      </c>
+      <c r="AT143">
+        <v>21.9870886</v>
+      </c>
+      <c r="AU143">
+        <v>19.3609592</v>
+      </c>
+      <c r="AV143">
+        <v>15.189681</v>
+      </c>
+      <c r="AW143">
+        <v>22.1632916</v>
+      </c>
+      <c r="AX143">
+        <v>19.5408345</v>
+      </c>
+      <c r="AY143">
+        <v>13.7730427</v>
+      </c>
+      <c r="BA143">
+        <v>10.388223</v>
+      </c>
+      <c r="BB143">
+        <v>13.1412397</v>
+      </c>
+      <c r="BC143">
+        <v>13.8785426</v>
+      </c>
+      <c r="BD143">
+        <v>13.5789521</v>
+      </c>
+      <c r="BE143">
+        <v>15.5949872</v>
+      </c>
     </row>
     <row r="144" spans="1:57">
       <c r="A144" t="s">
         <v>198</v>
+      </c>
+      <c r="B144">
+        <v>17.0463174</v>
+      </c>
+      <c r="C144">
+        <v>21.1564028</v>
+      </c>
+      <c r="D144">
+        <v>20.2310999</v>
+      </c>
+      <c r="F144">
+        <v>23.0040644</v>
+      </c>
+      <c r="G144">
+        <v>12.775418</v>
+      </c>
+      <c r="H144">
+        <v>12.9222858</v>
+      </c>
+      <c r="I144">
+        <v>11.4963504</v>
+      </c>
+      <c r="J144">
+        <v>13.4214186</v>
+      </c>
+      <c r="K144">
+        <v>13.5416667</v>
+      </c>
+      <c r="L144">
+        <v>15.8324116</v>
+      </c>
+      <c r="M144">
+        <v>17.2471243</v>
+      </c>
+      <c r="O144">
+        <v>9.894304200000001</v>
+      </c>
+      <c r="P144">
+        <v>20.1258308</v>
+      </c>
+      <c r="Q144">
+        <v>16.1170344</v>
+      </c>
+      <c r="R144">
+        <v>13.4225995</v>
+      </c>
+      <c r="S144">
+        <v>18.6094995</v>
+      </c>
+      <c r="T144">
+        <v>16.0758593</v>
+      </c>
+      <c r="U144">
+        <v>15.6757648</v>
+      </c>
+      <c r="V144">
+        <v>21.2745764</v>
+      </c>
+      <c r="W144">
+        <v>11.8854505</v>
+      </c>
+      <c r="X144">
+        <v>13.5907417</v>
+      </c>
+      <c r="Y144">
+        <v>9.627515799999999</v>
+      </c>
+      <c r="Z144">
+        <v>10.7857541</v>
+      </c>
+      <c r="AA144">
+        <v>14.4854168</v>
+      </c>
+      <c r="AB144">
+        <v>15.3933595</v>
+      </c>
+      <c r="AD144">
+        <v>24.0709086</v>
+      </c>
+      <c r="AE144">
+        <v>13.2498915</v>
+      </c>
+      <c r="AF144">
+        <v>16.8520224</v>
+      </c>
+      <c r="AG144">
+        <v>17.1252175</v>
+      </c>
+      <c r="AH144">
+        <v>18.0246439</v>
+      </c>
+      <c r="AI144">
+        <v>10.3153304</v>
+      </c>
+      <c r="AJ144">
+        <v>12.4973671</v>
+      </c>
+      <c r="AK144">
+        <v>14.3150808</v>
+      </c>
+      <c r="AL144">
+        <v>14.3441225</v>
+      </c>
+      <c r="AM144">
+        <v>12.1483419</v>
+      </c>
+      <c r="AN144">
+        <v>13.002053</v>
+      </c>
+      <c r="AO144">
+        <v>19.538884</v>
+      </c>
+      <c r="AP144">
+        <v>11.5369845</v>
+      </c>
+      <c r="AQ144">
+        <v>11.3603624</v>
+      </c>
+      <c r="AS144">
+        <v>10.9600925</v>
+      </c>
+      <c r="AT144">
+        <v>22.9594752</v>
+      </c>
+      <c r="AU144">
+        <v>19.4715984</v>
+      </c>
+      <c r="AV144">
+        <v>15.836489</v>
+      </c>
+      <c r="AW144">
+        <v>22.9719406</v>
+      </c>
+      <c r="AX144">
+        <v>19.9300668</v>
+      </c>
+      <c r="AY144">
+        <v>14.1189323</v>
+      </c>
+      <c r="BA144">
+        <v>10.3096462</v>
+      </c>
+      <c r="BB144">
+        <v>13.474175</v>
+      </c>
+      <c r="BC144">
+        <v>14.1179391</v>
+      </c>
+      <c r="BD144">
+        <v>14.2830295</v>
+      </c>
+      <c r="BE144">
+        <v>15.089086</v>
+      </c>
+    </row>
+    <row r="145" spans="1:57">
+      <c r="A145" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145">
+        <v>17.3165138</v>
+      </c>
+      <c r="C145">
+        <v>22.0360745</v>
+      </c>
+      <c r="D145">
+        <v>20.1803961</v>
+      </c>
+      <c r="F145">
+        <v>24.1166012</v>
+      </c>
+      <c r="G145">
+        <v>13.0016802</v>
+      </c>
+      <c r="H145">
+        <v>13.2370663</v>
+      </c>
+      <c r="I145">
+        <v>11.3911743</v>
+      </c>
+      <c r="J145">
+        <v>15.6716418</v>
+      </c>
+      <c r="K145">
+        <v>13.5115725</v>
+      </c>
+      <c r="L145">
+        <v>16.91313</v>
+      </c>
+      <c r="M145">
+        <v>17.6445627</v>
+      </c>
+      <c r="O145">
+        <v>10.3076923</v>
+      </c>
+      <c r="P145">
+        <v>20.4799191</v>
+      </c>
+      <c r="Q145">
+        <v>16.1706377</v>
+      </c>
+      <c r="R145">
+        <v>13.1358945</v>
+      </c>
+      <c r="S145">
+        <v>18.5500694</v>
+      </c>
+      <c r="T145">
+        <v>15.7639909</v>
+      </c>
+      <c r="U145">
+        <v>15.7251752</v>
+      </c>
+      <c r="V145">
+        <v>22.0776219</v>
+      </c>
+      <c r="W145">
+        <v>11.4029664</v>
+      </c>
+      <c r="X145">
+        <v>13.1204554</v>
+      </c>
+      <c r="Y145">
+        <v>9.6080725</v>
+      </c>
+      <c r="Z145">
+        <v>10.848253</v>
+      </c>
+      <c r="AA145">
+        <v>15.1191711</v>
+      </c>
+      <c r="AB145">
+        <v>15.5561748</v>
+      </c>
+      <c r="AD145">
+        <v>24.340724</v>
+      </c>
+      <c r="AE145">
+        <v>13.1766286</v>
+      </c>
+      <c r="AF145">
+        <v>16.9959595</v>
+      </c>
+      <c r="AG145">
+        <v>17.3701245</v>
+      </c>
+      <c r="AH145">
+        <v>18.1533888</v>
+      </c>
+      <c r="AI145">
+        <v>10.3858078</v>
+      </c>
+      <c r="AJ145">
+        <v>12.6874065</v>
+      </c>
+      <c r="AK145">
+        <v>15.0644002</v>
+      </c>
+      <c r="AL145">
+        <v>15.2765066</v>
+      </c>
+      <c r="AM145">
+        <v>12.0733555</v>
+      </c>
+      <c r="AN145">
+        <v>12.9759208</v>
+      </c>
+      <c r="AO145">
+        <v>20.3452846</v>
+      </c>
+      <c r="AP145">
+        <v>11.3683295</v>
+      </c>
+      <c r="AQ145">
+        <v>11.5125593</v>
+      </c>
+      <c r="AS145">
+        <v>10.8506175</v>
+      </c>
+      <c r="AT145">
+        <v>23.40987</v>
+      </c>
+      <c r="AU145">
+        <v>20.7864045</v>
+      </c>
+      <c r="AV145">
+        <v>16.032284</v>
+      </c>
+      <c r="AW145">
+        <v>24.1767046</v>
+      </c>
+      <c r="AX145">
+        <v>20.2066568</v>
+      </c>
+      <c r="AY145">
+        <v>14.1157567</v>
+      </c>
+      <c r="BA145">
+        <v>10.2154649</v>
+      </c>
+      <c r="BB145">
+        <v>13.279306</v>
+      </c>
+      <c r="BC145">
+        <v>13.9073914</v>
+      </c>
+      <c r="BD145">
+        <v>13.5028546</v>
+      </c>
+      <c r="BE145">
+        <v>15.2606344</v>
+      </c>
+    </row>
+    <row r="146" spans="1:57">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146">
+        <v>17.0936749</v>
+      </c>
+      <c r="C146">
+        <v>22.7740105</v>
+      </c>
+      <c r="D146">
+        <v>21.1436974</v>
+      </c>
+      <c r="F146">
+        <v>25.2981312</v>
+      </c>
+      <c r="G146">
+        <v>13.5824354</v>
+      </c>
+      <c r="H146">
+        <v>13.2388967</v>
+      </c>
+      <c r="I146">
+        <v>11.0983632</v>
+      </c>
+      <c r="J146">
+        <v>15.21181</v>
+      </c>
+      <c r="K146">
+        <v>14.2899761</v>
+      </c>
+      <c r="L146">
+        <v>17.7022691</v>
+      </c>
+      <c r="M146">
+        <v>18.3350568</v>
+      </c>
+      <c r="O146">
+        <v>10.9073959</v>
+      </c>
+      <c r="P146">
+        <v>20.9754309</v>
+      </c>
+      <c r="Q146">
+        <v>17.9560189</v>
+      </c>
+      <c r="R146">
+        <v>12.97533</v>
+      </c>
+      <c r="S146">
+        <v>18.4692339</v>
+      </c>
+      <c r="T146">
+        <v>16.4305433</v>
+      </c>
+      <c r="U146">
+        <v>15.6735795</v>
+      </c>
+      <c r="V146">
+        <v>22.8904417</v>
+      </c>
+      <c r="W146">
+        <v>11.6449151</v>
+      </c>
+      <c r="X146">
+        <v>13.2868916</v>
+      </c>
+      <c r="Y146">
+        <v>9.359681399999999</v>
+      </c>
+      <c r="Z146">
+        <v>10.8732211</v>
+      </c>
+      <c r="AA146">
+        <v>15.0747685</v>
+      </c>
+      <c r="AB146">
+        <v>15.5158109</v>
+      </c>
+      <c r="AD146">
+        <v>24.8879141</v>
+      </c>
+      <c r="AE146">
+        <v>13.1286613</v>
+      </c>
+      <c r="AF146">
+        <v>17.3084322</v>
+      </c>
+      <c r="AG146">
+        <v>16.5407786</v>
+      </c>
+      <c r="AH146">
+        <v>18.2054626</v>
+      </c>
+      <c r="AI146">
+        <v>10.105382</v>
+      </c>
+      <c r="AJ146">
+        <v>12.7694734</v>
+      </c>
+      <c r="AK146">
+        <v>15.3658474</v>
+      </c>
+      <c r="AL146">
+        <v>15.3090244</v>
+      </c>
+      <c r="AM146">
+        <v>12.0433725</v>
+      </c>
+      <c r="AN146">
+        <v>13.181903</v>
+      </c>
+      <c r="AO146">
+        <v>20.2608306</v>
+      </c>
+      <c r="AP146">
+        <v>11.670171</v>
+      </c>
+      <c r="AQ146">
+        <v>11.2953419</v>
+      </c>
+      <c r="AS146">
+        <v>11.2499169</v>
+      </c>
+      <c r="AT146">
+        <v>24.5334944</v>
+      </c>
+      <c r="AU146">
+        <v>20.9010626</v>
+      </c>
+      <c r="AV146">
+        <v>16.1360694</v>
+      </c>
+      <c r="AW146">
+        <v>25.4589453</v>
+      </c>
+      <c r="AX146">
+        <v>20.273411</v>
+      </c>
+      <c r="AY146">
+        <v>13.9455758</v>
+      </c>
+      <c r="BA146">
+        <v>10.5447589</v>
+      </c>
+      <c r="BB146">
+        <v>13.4089693</v>
+      </c>
+      <c r="BC146">
+        <v>13.9999813</v>
+      </c>
+      <c r="BD146">
+        <v>13.6277023</v>
+      </c>
+      <c r="BE146">
+        <v>14.4864613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:57">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147">
+        <v>16.9937206</v>
+      </c>
+      <c r="C147">
+        <v>23.9362063</v>
+      </c>
+      <c r="D147">
+        <v>21.3845834</v>
+      </c>
+      <c r="F147">
+        <v>26.1843834</v>
+      </c>
+      <c r="G147">
+        <v>13.9620312</v>
+      </c>
+      <c r="H147">
+        <v>12.916085</v>
+      </c>
+      <c r="I147">
+        <v>10.4653022</v>
+      </c>
+      <c r="J147">
+        <v>14.4823067</v>
+      </c>
+      <c r="K147">
+        <v>13.9290012</v>
+      </c>
+      <c r="L147">
+        <v>18.8108153</v>
+      </c>
+      <c r="M147">
+        <v>19.1794568</v>
+      </c>
+      <c r="O147">
+        <v>10.9620419</v>
+      </c>
+      <c r="P147">
+        <v>21.4057367</v>
+      </c>
+      <c r="Q147">
+        <v>18.342754</v>
+      </c>
+      <c r="R147">
+        <v>12.8101213</v>
+      </c>
+      <c r="S147">
+        <v>18.1841856</v>
+      </c>
+      <c r="T147">
+        <v>16.5770114</v>
+      </c>
+      <c r="U147">
+        <v>15.9757011</v>
+      </c>
+      <c r="V147">
+        <v>23.6984248</v>
+      </c>
+      <c r="W147">
+        <v>11.4206894</v>
+      </c>
+      <c r="X147">
+        <v>13.4838192</v>
+      </c>
+      <c r="Y147">
+        <v>10.3614833</v>
+      </c>
+      <c r="Z147">
+        <v>11.2238289</v>
+      </c>
+      <c r="AA147">
+        <v>15.2991228</v>
+      </c>
+      <c r="AB147">
+        <v>16.4231594</v>
+      </c>
+      <c r="AD147">
+        <v>24.2064887</v>
+      </c>
+      <c r="AE147">
+        <v>13.7672723</v>
+      </c>
+      <c r="AF147">
+        <v>17.4648305</v>
+      </c>
+      <c r="AG147">
+        <v>18.0676623</v>
+      </c>
+      <c r="AH147">
+        <v>18.2890104</v>
+      </c>
+      <c r="AI147">
+        <v>9.9858607</v>
+      </c>
+      <c r="AJ147">
+        <v>12.6734429</v>
+      </c>
+      <c r="AK147">
+        <v>15.0338561</v>
+      </c>
+      <c r="AL147">
+        <v>15.7220826</v>
+      </c>
+      <c r="AM147">
+        <v>11.9733308</v>
+      </c>
+      <c r="AN147">
+        <v>13.5822707</v>
+      </c>
+      <c r="AO147">
+        <v>20.8169737</v>
+      </c>
+      <c r="AP147">
+        <v>12.1027921</v>
+      </c>
+      <c r="AQ147">
+        <v>11.3888872</v>
+      </c>
+      <c r="AS147">
+        <v>11.5383538</v>
+      </c>
+      <c r="AT147">
+        <v>25.9422008</v>
+      </c>
+      <c r="AU147">
+        <v>21.1213371</v>
+      </c>
+      <c r="AV147">
+        <v>17.0203399</v>
+      </c>
+      <c r="AW147">
+        <v>26.4850715</v>
+      </c>
+      <c r="AX147">
+        <v>20.9381511</v>
+      </c>
+      <c r="AY147">
+        <v>13.9121521</v>
+      </c>
+      <c r="BA147">
+        <v>10.8428927</v>
+      </c>
+      <c r="BB147">
+        <v>13.3538857</v>
+      </c>
+      <c r="BC147">
+        <v>14.4330377</v>
+      </c>
+      <c r="BD147">
+        <v>13.9714395</v>
+      </c>
+      <c r="BE147">
+        <v>15.4602689</v>
+      </c>
+    </row>
+    <row r="148" spans="1:57">
+      <c r="A148" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
